--- a/机器人社疫情日报.xlsx
+++ b/机器人社疫情日报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D490A9DA-E2FE-4A46-A73E-28E7FDFFAEBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663F7221-393B-4743-880A-2B44E071E74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51180" yWindow="21600" windowWidth="25590" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主表" sheetId="1" r:id="rId1"/>
@@ -976,17 +976,17 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="11" max="11" width="50" customWidth="1"/>
-    <col min="13" max="13" width="29.125" customWidth="1"/>
+    <col min="13" max="13" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1060,7 +1060,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>44</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>42</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>41</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>39</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>38</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>37</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>35</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>33</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>32</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>30</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>29</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>28</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>27</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>17</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>16</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3394,6 +3394,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
@@ -3403,11 +3408,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3423,13 +3423,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>23</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>23</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23</v>
       </c>
@@ -3546,12 +3546,12 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>23</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>23</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>23</v>
       </c>
@@ -3784,9 +3784,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3821,9 +3821,9 @@
       <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>39</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>39</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>39</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>39</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>39</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>39</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>39</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>39</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>39</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>39</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>37</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>37</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>37</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>37</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>37</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>37</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>37</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>37</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>37</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>35</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>35</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>35</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>35</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>35</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>35</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>35</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>35</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>31</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>31</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>31</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>31</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>27</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>27</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>27</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>27</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>27</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>27</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>27</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>27</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>27</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>27</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>23</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>23</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>23</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>23</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>23</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>23</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>23</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>23</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>23</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>23</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>8</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7</v>
       </c>

--- a/机器人社疫情日报.xlsx
+++ b/机器人社疫情日报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663F7221-393B-4743-880A-2B44E071E74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB831DB4-7E36-46B2-80C1-67651DA57970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51180" yWindow="21600" windowWidth="25590" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主表" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,20 @@
     <sheet name="家长接触重点疫区、境外登记" sheetId="4" r:id="rId4"/>
     <sheet name="请假学生登记" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="179">
   <si>
     <t>序号</t>
   </si>
@@ -277,27 +285,6 @@
   </si>
   <si>
     <t>学生5</t>
-  </si>
-  <si>
-    <t>接触时间(填X月X日)</t>
-  </si>
-  <si>
-    <t>接触人员名字</t>
-  </si>
-  <si>
-    <t>接触人员去过哪里</t>
-  </si>
-  <si>
-    <t>5.16–5.17</t>
-  </si>
-  <si>
-    <t>江西</t>
-  </si>
-  <si>
-    <t>20205月16号</t>
-  </si>
-  <si>
-    <t>江西玉山</t>
   </si>
   <si>
     <t>是否发热(填是&amp;否)</t>
@@ -497,9 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生1（姓名：咕咕鸡，是否体温异常(填是或否)：扁桃体发炎）</t>
-  </si>
-  <si>
     <t>学生1（姓名：咕咕鸡，是否发热(填是&amp;否)：否，是否咳嗽乏力腹泻呕吐等(填是&amp;否)：否，是否有重点疫区接触史(填是&amp;否)：否，请假原因：扁桃体发炎）</t>
   </si>
   <si>
@@ -548,22 +532,53 @@
     <t>猪妈妈</t>
   </si>
   <si>
+    <t>佩奇乐园</t>
+  </si>
+  <si>
+    <t>学生1（姓名：咕咕鸡，是否体温异常(填是或否)：是，晨检异常情况描述：发烧37.6）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生1（姓名：公牛先生，文字描述(例:X月X日学生姓名与去过哪里的谁接触?)：公牛先生的爸爸5月19日上海回来）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生1（姓名：咕咕鸡，文字描述(例:X月X日学生姓名与去过哪里的谁接触?)：咕咕鸡的爸爸5月19日上海回来）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入乘坐公交车的人数(数字)</t>
+  </si>
+  <si>
     <t>公牛先生</t>
-  </si>
-  <si>
-    <t>学生1（姓名：公牛先生，接触时间(填X月X日)：5.16–5.17，接触人员名字：狗爷爷，接触人员去过哪里：江西）</t>
-  </si>
-  <si>
-    <t>狗爷爷</t>
-  </si>
-  <si>
-    <t>学生1（姓名：咕咕鸡，接触时间(填X月X日)：20205月16号，接触人员名字：小猪乔治，接触人员去过哪里：江西玉山）</t>
-  </si>
-  <si>
-    <t>小猪乔治</t>
-  </si>
-  <si>
-    <t>佩奇乐园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公牛先生的爸爸5月19日上海回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕咕鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕咕鸡的爸爸5月19日上海回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字描述(例:X月X日学生姓名与去过哪里的谁接触?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字描述(例:X月X日学生姓名与去过哪里的谁接触?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>5月16日到江西上饶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -973,20 +988,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="11" max="11" width="50" customWidth="1"/>
-    <col min="13" max="13" width="29.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" customWidth="1"/>
+    <col min="12" max="12" width="36.33203125" customWidth="1"/>
+    <col min="14" max="14" width="66.109375" customWidth="1"/>
+    <col min="17" max="17" width="38.5546875" customWidth="1"/>
+    <col min="18" max="18" width="219" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1009,31 +1028,34 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1059,8 +1081,9 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>44</v>
       </c>
@@ -1071,10 +1094,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -1088,32 +1111,35 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
-        <v>22</v>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43</v>
       </c>
@@ -1124,10 +1150,10 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1141,32 +1167,35 @@
       <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
-        <v>22</v>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>42</v>
       </c>
@@ -1177,16 +1206,16 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -1194,32 +1223,35 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
-        <v>22</v>
+      <c r="J5">
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>41</v>
       </c>
@@ -1230,10 +1262,10 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1247,32 +1279,35 @@
       <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
-        <v>22</v>
+      <c r="J6">
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1283,10 +1318,10 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
@@ -1300,32 +1335,35 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="s">
-        <v>22</v>
+      <c r="J7">
+        <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>39</v>
       </c>
@@ -1336,10 +1374,10 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
@@ -1353,32 +1391,35 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="s">
-        <v>22</v>
+      <c r="J8">
+        <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>38</v>
       </c>
@@ -1389,10 +1430,10 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
         <v>31</v>
@@ -1406,32 +1447,35 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="s">
-        <v>22</v>
+      <c r="J9">
+        <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>37</v>
       </c>
@@ -1442,10 +1486,10 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
         <v>31</v>
@@ -1459,32 +1503,35 @@
       <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="s">
-        <v>22</v>
+      <c r="J10">
+        <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -1495,10 +1542,10 @@
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -1512,32 +1559,35 @@
       <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" t="s">
-        <v>22</v>
+      <c r="J11">
+        <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>35</v>
       </c>
@@ -1548,10 +1598,10 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
         <v>40</v>
@@ -1565,32 +1615,35 @@
       <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="J12" t="s">
-        <v>22</v>
+      <c r="J12">
+        <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
@@ -1601,10 +1654,10 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
         <v>40</v>
@@ -1618,32 +1671,35 @@
       <c r="I13" t="s">
         <v>18</v>
       </c>
-      <c r="J13" t="s">
-        <v>22</v>
+      <c r="J13">
+        <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>33</v>
       </c>
@@ -1654,10 +1710,10 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -1671,32 +1727,35 @@
       <c r="I14" t="s">
         <v>18</v>
       </c>
-      <c r="J14" t="s">
-        <v>22</v>
+      <c r="J14">
+        <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>32</v>
       </c>
@@ -1707,10 +1766,10 @@
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
@@ -1724,32 +1783,35 @@
       <c r="I15" t="s">
         <v>18</v>
       </c>
-      <c r="J15" t="s">
-        <v>22</v>
+      <c r="J15">
+        <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31</v>
       </c>
@@ -1760,10 +1822,10 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F16" t="s">
         <v>31</v>
@@ -1777,32 +1839,35 @@
       <c r="I16" t="s">
         <v>18</v>
       </c>
-      <c r="J16" t="s">
-        <v>22</v>
+      <c r="J16">
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" t="s">
         <v>35</v>
       </c>
-      <c r="Q16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>30</v>
       </c>
@@ -1813,10 +1878,10 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
@@ -1830,32 +1895,35 @@
       <c r="I17" t="s">
         <v>18</v>
       </c>
-      <c r="J17" t="s">
-        <v>22</v>
+      <c r="J17">
+        <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
         <v>35</v>
       </c>
-      <c r="M17" t="s">
-        <v>175</v>
-      </c>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>29</v>
       </c>
@@ -1866,10 +1934,10 @@
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -1883,32 +1951,35 @@
       <c r="I18" t="s">
         <v>18</v>
       </c>
-      <c r="J18" t="s">
-        <v>22</v>
+      <c r="J18">
+        <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>28</v>
       </c>
@@ -1919,10 +1990,10 @@
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
         <v>40</v>
@@ -1936,32 +2007,35 @@
       <c r="I19" t="s">
         <v>18</v>
       </c>
-      <c r="J19" t="s">
-        <v>22</v>
+      <c r="J19">
+        <v>16</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>27</v>
       </c>
@@ -1972,10 +2046,10 @@
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
@@ -1989,32 +2063,35 @@
       <c r="I20" t="s">
         <v>18</v>
       </c>
-      <c r="J20" t="s">
-        <v>22</v>
+      <c r="J20">
+        <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
@@ -2025,10 +2102,10 @@
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F21" t="s">
         <v>48</v>
@@ -2042,32 +2119,35 @@
       <c r="I21" t="s">
         <v>18</v>
       </c>
-      <c r="J21" t="s">
-        <v>22</v>
+      <c r="J21">
+        <v>18</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25</v>
       </c>
@@ -2078,10 +2158,10 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s">
         <v>31</v>
@@ -2095,32 +2175,35 @@
       <c r="I22" t="s">
         <v>18</v>
       </c>
-      <c r="J22" t="s">
-        <v>22</v>
+      <c r="J22">
+        <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2131,10 +2214,10 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
@@ -2148,32 +2231,35 @@
       <c r="I23" t="s">
         <v>18</v>
       </c>
-      <c r="J23" t="s">
-        <v>22</v>
+      <c r="J23">
+        <v>20</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O23" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2184,10 +2270,10 @@
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F24" t="s">
         <v>40</v>
@@ -2201,32 +2287,35 @@
       <c r="I24" t="s">
         <v>18</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
         <v>35</v>
       </c>
-      <c r="K24" t="s">
-        <v>157</v>
-      </c>
       <c r="L24" t="s">
+        <v>167</v>
+      </c>
+      <c r="M24" t="s">
         <v>35</v>
       </c>
-      <c r="M24" t="s">
-        <v>177</v>
-      </c>
       <c r="N24" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="O24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" t="s">
         <v>35</v>
       </c>
-      <c r="Q24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2237,10 +2326,10 @@
         <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -2254,32 +2343,35 @@
       <c r="I25" t="s">
         <v>18</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25">
         <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2290,10 +2382,10 @@
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
@@ -2307,32 +2399,35 @@
       <c r="I26" t="s">
         <v>18</v>
       </c>
-      <c r="J26" t="s">
-        <v>22</v>
+      <c r="J26">
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
@@ -2343,16 +2438,16 @@
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H27" t="s">
         <v>18</v>
@@ -2360,32 +2455,35 @@
       <c r="I27" t="s">
         <v>18</v>
       </c>
-      <c r="J27" t="s">
-        <v>22</v>
+      <c r="J27">
+        <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
@@ -2396,10 +2494,10 @@
         <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
         <v>31</v>
@@ -2413,32 +2511,35 @@
       <c r="I28" t="s">
         <v>18</v>
       </c>
-      <c r="J28" t="s">
-        <v>22</v>
+      <c r="J28">
+        <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18</v>
       </c>
@@ -2449,16 +2550,16 @@
         <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F29" t="s">
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H29" t="s">
         <v>18</v>
@@ -2466,32 +2567,35 @@
       <c r="I29" t="s">
         <v>18</v>
       </c>
-      <c r="J29" t="s">
-        <v>22</v>
+      <c r="J29">
+        <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O29" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>17</v>
       </c>
@@ -2502,10 +2606,10 @@
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F30" t="s">
         <v>31</v>
@@ -2519,32 +2623,35 @@
       <c r="I30" t="s">
         <v>18</v>
       </c>
-      <c r="J30" t="s">
-        <v>22</v>
+      <c r="J30">
+        <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>16</v>
       </c>
@@ -2555,10 +2662,10 @@
         <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F31" t="s">
         <v>24</v>
@@ -2572,32 +2679,35 @@
       <c r="I31" t="s">
         <v>18</v>
       </c>
-      <c r="J31" t="s">
-        <v>22</v>
+      <c r="J31">
+        <v>28</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15</v>
       </c>
@@ -2608,10 +2718,10 @@
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F32" t="s">
         <v>48</v>
@@ -2625,32 +2735,35 @@
       <c r="I32" t="s">
         <v>18</v>
       </c>
-      <c r="J32" t="s">
-        <v>22</v>
+      <c r="J32">
+        <v>29</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O32" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2661,10 +2774,10 @@
         <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F33" t="s">
         <v>40</v>
@@ -2678,32 +2791,35 @@
       <c r="I33" t="s">
         <v>18</v>
       </c>
-      <c r="J33" t="s">
-        <v>22</v>
+      <c r="J33">
+        <v>30</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13</v>
       </c>
@@ -2714,10 +2830,10 @@
         <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
         <v>28</v>
@@ -2731,32 +2847,35 @@
       <c r="I34" t="s">
         <v>18</v>
       </c>
-      <c r="J34" t="s">
-        <v>22</v>
+      <c r="J34">
+        <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -2767,10 +2886,10 @@
         <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -2784,32 +2903,35 @@
       <c r="I35" t="s">
         <v>18</v>
       </c>
-      <c r="J35" t="s">
-        <v>22</v>
+      <c r="J35">
+        <v>32</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O35" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -2820,10 +2942,10 @@
         <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
         <v>31</v>
@@ -2837,32 +2959,35 @@
       <c r="I36" t="s">
         <v>18</v>
       </c>
-      <c r="J36" t="s">
-        <v>22</v>
+      <c r="J36">
+        <v>33</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
@@ -2873,10 +2998,10 @@
         <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E37" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F37" t="s">
         <v>48</v>
@@ -2890,32 +3015,35 @@
       <c r="I37" t="s">
         <v>18</v>
       </c>
-      <c r="J37" t="s">
-        <v>22</v>
+      <c r="J37">
+        <v>34</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O37" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -2926,16 +3054,16 @@
         <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H38" t="s">
         <v>18</v>
@@ -2943,32 +3071,35 @@
       <c r="I38" t="s">
         <v>18</v>
       </c>
-      <c r="J38" t="s">
-        <v>22</v>
+      <c r="J38">
+        <v>35</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O38" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
@@ -2979,16 +3110,16 @@
         <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F39" t="s">
         <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H39" t="s">
         <v>18</v>
@@ -2996,32 +3127,35 @@
       <c r="I39" t="s">
         <v>18</v>
       </c>
-      <c r="J39" t="s">
-        <v>22</v>
+      <c r="J39">
+        <v>36</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N39" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O39" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P39" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" t="s">
         <v>35</v>
       </c>
-      <c r="Q39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -3032,10 +3166,10 @@
         <v>70</v>
       </c>
       <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" t="s">
         <v>149</v>
-      </c>
-      <c r="E40" t="s">
-        <v>156</v>
       </c>
       <c r="F40" t="s">
         <v>28</v>
@@ -3049,32 +3183,35 @@
       <c r="I40" t="s">
         <v>18</v>
       </c>
-      <c r="J40" t="s">
-        <v>22</v>
+      <c r="J40">
+        <v>37</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O40" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P40" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q40" t="s">
         <v>35</v>
       </c>
-      <c r="Q40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -3085,10 +3222,10 @@
         <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F41" t="s">
         <v>24</v>
@@ -3102,32 +3239,35 @@
       <c r="I41" t="s">
         <v>18</v>
       </c>
-      <c r="J41" t="s">
-        <v>22</v>
+      <c r="J41">
+        <v>38</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M41" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N41" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O41" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P41" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -3138,10 +3278,10 @@
         <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F42" t="s">
         <v>24</v>
@@ -3155,32 +3295,35 @@
       <c r="I42" t="s">
         <v>18</v>
       </c>
-      <c r="J42" t="s">
-        <v>22</v>
+      <c r="J42">
+        <v>39</v>
       </c>
       <c r="K42" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N42" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O42" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P42" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3191,10 +3334,10 @@
         <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
@@ -3208,32 +3351,35 @@
       <c r="I43" t="s">
         <v>18</v>
       </c>
-      <c r="J43" t="s">
-        <v>22</v>
+      <c r="J43">
+        <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N43" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O43" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P43" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3244,10 +3390,10 @@
         <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
         <v>40</v>
@@ -3261,32 +3407,35 @@
       <c r="I44" t="s">
         <v>18</v>
       </c>
-      <c r="J44" t="s">
-        <v>22</v>
+      <c r="J44">
+        <v>41</v>
       </c>
       <c r="K44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3297,10 +3446,10 @@
         <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F45" t="s">
         <v>31</v>
@@ -3314,32 +3463,35 @@
       <c r="I45" t="s">
         <v>18</v>
       </c>
-      <c r="J45" t="s">
-        <v>22</v>
+      <c r="J45">
+        <v>42</v>
       </c>
       <c r="K45" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O45" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3350,10 +3502,10 @@
         <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E46" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
@@ -3367,47 +3519,51 @@
       <c r="I46" t="s">
         <v>18</v>
       </c>
-      <c r="J46" t="s">
-        <v>22</v>
+      <c r="J46">
+        <v>43</v>
       </c>
       <c r="K46" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O46" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q46" t="s">
+        <v>22</v>
+      </c>
+      <c r="R46" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3420,7 +3576,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3440,7 +3596,7 @@
         <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
         <v>79</v>
@@ -3454,10 +3610,10 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
         <v>81</v>
@@ -3540,18 +3696,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="A3" sqref="A3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3562,16 +3719,10 @@
         <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -3579,19 +3730,13 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -3604,14 +3749,8 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -3624,14 +3763,8 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -3644,14 +3777,8 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -3664,14 +3791,8 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
@@ -3679,19 +3800,13 @@
         <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23</v>
       </c>
@@ -3701,17 +3816,8 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>23</v>
       </c>
@@ -3721,17 +3827,8 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>23</v>
       </c>
@@ -3741,17 +3838,8 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>23</v>
       </c>
@@ -3759,34 +3847,30 @@
         <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3797,19 +3881,83 @@
         <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" t="s">
-        <v>88</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3834,16 +3982,16 @@
         <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3854,7 +4002,7 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -3866,7 +4014,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3966,7 +4114,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -3989,7 +4137,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -4012,7 +4160,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -4035,7 +4183,7 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -4058,7 +4206,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -4084,19 +4232,19 @@
         <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4196,7 +4344,7 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -4219,7 +4367,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -4242,7 +4390,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -4265,7 +4413,7 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -4288,7 +4436,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -4314,7 +4462,7 @@
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -4326,7 +4474,7 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4426,7 +4574,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -4449,7 +4597,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -4472,7 +4620,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -4495,7 +4643,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -4518,7 +4666,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -4544,7 +4692,7 @@
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -4556,7 +4704,7 @@
         <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4656,7 +4804,7 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -4679,7 +4827,7 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -4702,7 +4850,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -4725,7 +4873,7 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -4748,7 +4896,7 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
@@ -4774,7 +4922,7 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -4886,7 +5034,7 @@
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -4909,7 +5057,7 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -4932,7 +5080,7 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -4955,7 +5103,7 @@
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -4978,7 +5126,7 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -5004,7 +5152,7 @@
         <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
@@ -5116,7 +5264,7 @@
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -5139,7 +5287,7 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -5162,7 +5310,7 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -5185,7 +5333,7 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -5208,7 +5356,7 @@
         <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
@@ -5234,7 +5382,7 @@
         <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
@@ -5246,7 +5394,7 @@
         <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -5346,7 +5494,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
@@ -5369,7 +5517,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -5392,7 +5540,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
@@ -5415,7 +5563,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -5438,7 +5586,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -5464,7 +5612,7 @@
         <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
         <v>22</v>
@@ -5476,7 +5624,7 @@
         <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5576,7 +5724,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
@@ -5599,7 +5747,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -5622,7 +5770,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -5645,7 +5793,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -5668,7 +5816,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>

--- a/机器人社疫情日报.xlsx
+++ b/机器人社疫情日报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63893BA7-0D1F-4F7C-BF61-CEDB4C2DE2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D725D4-80C0-4F5B-8C49-953F8C58142A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="0" windowWidth="20472" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
   <si>
     <t>序号</t>
   </si>
@@ -37,12 +37,12 @@
     <t>钉钉通讯录部门</t>
   </si>
   <si>
-    <t>请输入乘坐公交车的人数(数字)</t>
-  </si>
-  <si>
     <t>请选择班级</t>
   </si>
   <si>
+    <t>乘坐公交车人数</t>
+  </si>
+  <si>
     <t>健康码状态统计</t>
   </si>
   <si>
@@ -85,7 +85,7 @@
     <t/>
   </si>
   <si>
-    <t>2020-08-30 11:07</t>
+    <t>2020-09-04 13:10</t>
   </si>
   <si>
     <t>刘晓燕</t>
@@ -110,61 +110,16 @@
     <t>是</t>
   </si>
   <si>
-    <t>学生1（姓名：无）</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>2020-08-30 10:27</t>
-  </si>
-  <si>
-    <t>魏骏飞</t>
-  </si>
-  <si>
-    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;四年级2017级&gt;四年级3班(雏鹰中队)&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;四年级</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>四年级</t>
-  </si>
-  <si>
-    <t>三班</t>
-  </si>
-  <si>
-    <t>绿码人数（人数：42）
- 黄码人数（人数：0）
- 红码人数（人数：0）
- 橙码人数（人数：0）
- 未申领健康码（人数：0）</t>
-  </si>
-  <si>
-    <t>2020-08-30 10:18</t>
-  </si>
-  <si>
-    <t>傅琴</t>
-  </si>
-  <si>
-    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组长，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;六年级2015级&gt;六年级2班&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;六年级</t>
-  </si>
-  <si>
-    <t>五年级</t>
-  </si>
-  <si>
-    <t>二班</t>
-  </si>
-  <si>
-    <t>绿码人数（人数：45）
- 黄码人数（人数：0）
- 红码人数（人数：0）
- 橙码人数（人数：0）
- 未申领健康码（人数：0）</t>
-  </si>
-  <si>
-    <t>学生1（姓名：周星宇，是否发热(填是&amp;否)：否，是否咳嗽乏力腹泻呕吐等(填是&amp;否)：否，是否有重点疫区接触史(填是&amp;否)：否，请假原因：昨天有拉肚子，今天在家休息。）
- 学生2（姓名：王煜阳，是否发热(填是&amp;否)：否，是否咳嗽乏力腹泻呕吐等(填是&amp;否)：否，是否有重点疫区接触史(填是&amp;否)：否，请假原因：军训不舒服，在家休息）</t>
+    <t>学生1（姓名：呃呃呃，是否体温异常(填是或否)：是，晨检异常情况描述：旺旺）</t>
+  </si>
+  <si>
+    <t>学生1（姓名：哎哎，文字描述(例:X月X日学生姓名与去过哪里的谁接触?)：发广告刚刚好）</t>
+  </si>
+  <si>
+    <t>学生1（姓名：是是是，文字描述(例:X月X日学生家长与去过哪里的谁接触?)：呃呃呃）</t>
+  </si>
+  <si>
+    <t>学生1（姓名：呃呃呃，是否发热(填是&amp;否)：是，是否咳嗽乏力腹泻呕吐等(填是&amp;否)：三生三世，是否有重点疫区接触史(填是&amp;否)：是，请假原因：滚滚滚）</t>
   </si>
   <si>
     <t>主表序号</t>
@@ -206,9 +161,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -221,7 +173,10 @@
     <t>学生1</t>
   </si>
   <si>
-    <t>无</t>
+    <t>呃呃呃</t>
+  </si>
+  <si>
+    <t>旺旺</t>
   </si>
   <si>
     <t>学生2</t>
@@ -239,9 +194,18 @@
     <t>文字描述(例:X月X日学生姓名与去过哪里的谁接触?)</t>
   </si>
   <si>
+    <t>哎哎</t>
+  </si>
+  <si>
+    <t>发广告刚刚好</t>
+  </si>
+  <si>
     <t>文字描述(例:X月X日学生家长与去过哪里的谁接触?)</t>
   </si>
   <si>
+    <t>是是是</t>
+  </si>
+  <si>
     <t>是否发热(填是&amp;否)</t>
   </si>
   <si>
@@ -254,16 +218,10 @@
     <t>请假原因</t>
   </si>
   <si>
-    <t>周星宇</t>
-  </si>
-  <si>
-    <t>昨天有拉肚子，今天在家休息。</t>
-  </si>
-  <si>
-    <t>王煜阳</t>
-  </si>
-  <si>
-    <t>军训不舒服，在家休息</t>
+    <t>三生三世</t>
+  </si>
+  <si>
+    <t>滚滚滚</t>
   </si>
   <si>
     <t>学生6</t>
@@ -688,18 +646,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="11" max="11" width="107.77734375" customWidth="1"/>
-    <col min="12" max="12" width="30.77734375" customWidth="1"/>
-    <col min="13" max="13" width="21.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -720,12 +673,12 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
@@ -760,19 +713,19 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -785,7 +738,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -799,20 +752,20 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3">
-        <v>22</v>
+      <c r="F3" t="s">
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
+      <c r="J3">
+        <v>30</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -824,140 +777,22 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -968,8 +803,8 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
@@ -987,7 +822,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -995,178 +830,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1186,44 +911,44 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1237,10 +962,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1254,10 +979,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1271,10 +996,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -1295,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1303,16 +1028,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1332,16 +1127,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
-        <v>68</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1361,25 +1226,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1387,22 +1252,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1410,22 +1275,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1433,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1456,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1479,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -1502,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1525,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1548,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1571,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1594,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>

--- a/机器人社疫情日报.xlsx
+++ b/机器人社疫情日报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D725D4-80C0-4F5B-8C49-953F8C58142A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8C011-25A4-41F3-9272-1A76F5938445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="0" windowWidth="20472" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
   <si>
     <t>序号</t>
   </si>
@@ -85,13 +85,41 @@
     <t/>
   </si>
   <si>
-    <t>2020-09-04 13:10</t>
-  </si>
-  <si>
-    <t>刘晓燕</t>
-  </si>
-  <si>
-    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;英语，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;六年级2015级&gt;六年级2班&gt;老师，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;六年级2015级&gt;六年级1班&gt;老师，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;六年级2015级&gt;六年级7班&gt;老师，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;六年级2015级&gt;六年级6班&gt;家长，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;六年级，衢州市柯城区新世纪学校&gt;中层岗位&gt;安保处</t>
+    <t>2020-09-07 08:35</t>
+  </si>
+  <si>
+    <t>魏骏飞</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;四年级2017级&gt;四年级3班(雏鹰中队)&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;四年级</t>
+  </si>
+  <si>
+    <t>四年级</t>
+  </si>
+  <si>
+    <t>三班</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>绿码人数（人数：43）
+ 黄码人数（人数：0）
+ 红码人数（人数：0）
+ 橙码人数（人数：0）
+ 未申领健康码（人数：0）</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>2020-09-07 08:09</t>
+  </si>
+  <si>
+    <t>朱志菊</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;三年级2018级&gt;三年级6班(二6博学班)&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;三年级</t>
   </si>
   <si>
     <t>三年级</t>
@@ -100,26 +128,61 @@
     <t>六班</t>
   </si>
   <si>
+    <t>2020-09-07 07:38</t>
+  </si>
+  <si>
+    <t>吕雨香</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组长，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;五年级2016级&gt;五年级4班(四（4）班)&gt;家长，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;五年级2016级&gt;五年级1班&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;五年级</t>
+  </si>
+  <si>
+    <t>五年级</t>
+  </si>
+  <si>
+    <t>一班</t>
+  </si>
+  <si>
+    <t>绿码人数（人数：44）
+ 黄码人数（人数：0）
+ 红码人数（人数：0）
+ 橙码人数（人数：0）
+ 未申领健康码（人数：0）</t>
+  </si>
+  <si>
+    <t>2020-09-07 06:40</t>
+  </si>
+  <si>
+    <t>周晨娟</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组长，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;四年级2017级&gt;四年级1班&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;四年级</t>
+  </si>
+  <si>
+    <t>绿码人数（人数：41）
+ 黄码人数（人数：0）
+ 红码人数（人数：0）
+ 橙码人数（人数：0）
+ 未申领健康码（人数：0）</t>
+  </si>
+  <si>
+    <t>2020-09-06 16:34</t>
+  </si>
+  <si>
+    <t>汪明霞</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;六年级2015级&gt;六年级1班&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;六年级</t>
+  </si>
+  <si>
+    <t>六年级</t>
+  </si>
+  <si>
     <t>绿码人数（人数：45）
- 黄码人数（人数：1）
- 红码人数（人数：2）
- 橙码人数（人数：4）
- 未申领健康码（人数：5）</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>学生1（姓名：呃呃呃，是否体温异常(填是或否)：是，晨检异常情况描述：旺旺）</t>
-  </si>
-  <si>
-    <t>学生1（姓名：哎哎，文字描述(例:X月X日学生姓名与去过哪里的谁接触?)：发广告刚刚好）</t>
-  </si>
-  <si>
-    <t>学生1（姓名：是是是，文字描述(例:X月X日学生家长与去过哪里的谁接触?)：呃呃呃）</t>
-  </si>
-  <si>
-    <t>学生1（姓名：呃呃呃，是否发热(填是&amp;否)：是，是否咳嗽乏力腹泻呕吐等(填是&amp;否)：三生三世，是否有重点疫区接触史(填是&amp;否)：是，请假原因：滚滚滚）</t>
+ 黄码人数（人数：0）
+ 红码人数（人数：0）
+ 橙码人数（人数：0）
+ 未申领健康码（人数：0）</t>
   </si>
   <si>
     <t>主表序号</t>
@@ -134,33 +197,30 @@
     <t>绿码人数</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>黄码人数</t>
+  </si>
+  <si>
+    <t>红码人数</t>
+  </si>
+  <si>
+    <t>橙码人数</t>
+  </si>
+  <si>
+    <t>未申领健康码</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
-    <t>黄码人数</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>红码人数</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>橙码人数</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>未申领健康码</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -170,42 +230,12 @@
     <t>晨检异常情况描述</t>
   </si>
   <si>
-    <t>学生1</t>
-  </si>
-  <si>
-    <t>呃呃呃</t>
-  </si>
-  <si>
-    <t>旺旺</t>
-  </si>
-  <si>
-    <t>学生2</t>
-  </si>
-  <si>
-    <t>学生3</t>
-  </si>
-  <si>
-    <t>学生4</t>
-  </si>
-  <si>
-    <t>学生5</t>
-  </si>
-  <si>
     <t>文字描述(例:X月X日学生姓名与去过哪里的谁接触?)</t>
   </si>
   <si>
-    <t>哎哎</t>
-  </si>
-  <si>
-    <t>发广告刚刚好</t>
-  </si>
-  <si>
     <t>文字描述(例:X月X日学生家长与去过哪里的谁接触?)</t>
   </si>
   <si>
-    <t>是是是</t>
-  </si>
-  <si>
     <t>是否发热(填是&amp;否)</t>
   </si>
   <si>
@@ -216,27 +246,6 @@
   </si>
   <si>
     <t>请假原因</t>
-  </si>
-  <si>
-    <t>三生三世</t>
-  </si>
-  <si>
-    <t>滚滚滚</t>
-  </si>
-  <si>
-    <t>学生6</t>
-  </si>
-  <si>
-    <t>学生7</t>
-  </si>
-  <si>
-    <t>学生8</t>
-  </si>
-  <si>
-    <t>学生9</t>
-  </si>
-  <si>
-    <t>学生10</t>
   </si>
 </sst>
 </file>
@@ -646,13 +655,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -738,7 +750,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -764,35 +776,271 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -830,68 +1078,288 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -903,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -911,104 +1379,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1403,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1028,86 +1411,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1432,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1127,86 +1440,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1226,255 +1469,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
         <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/机器人社疫情日报.xlsx
+++ b/机器人社疫情日报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8C011-25A4-41F3-9272-1A76F5938445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E530C084-766F-4D94-9888-D996FC30ECA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="138">
   <si>
     <t>序号</t>
   </si>
@@ -85,6 +85,71 @@
     <t/>
   </si>
   <si>
+    <t>2020-09-07 11:14</t>
+  </si>
+  <si>
+    <t>吴红平</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;数学，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;三年级2018级&gt;三年级2班&gt;老师，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;三年级2018级&gt;三年级1班&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;三年级</t>
+  </si>
+  <si>
+    <t>二年级</t>
+  </si>
+  <si>
+    <t>二班</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>绿码人数（人数：42）
+ 黄码人数（人数：0）
+ 红码人数（人数：0）
+ 橙码人数（人数：0）
+ 未申领健康码（人数：0）</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>学生1（姓名：李悦鸣，是否发热(填是&amp;否)：否，是否咳嗽乏力腹泻呕吐等(填是&amp;否)：否，是否有重点疫区接触史(填是&amp;否)：否，请假原因：喉咙不舒服）</t>
+  </si>
+  <si>
+    <t>2020-09-07 11:03</t>
+  </si>
+  <si>
+    <t>郑建英</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;三年级2018级&gt;三年级1班&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组长，衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;三年级</t>
+  </si>
+  <si>
+    <t>一班</t>
+  </si>
+  <si>
+    <t>2020-09-07 10:56</t>
+  </si>
+  <si>
+    <t>汪明霞</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;六年级2015级&gt;六年级1班&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;六年级</t>
+  </si>
+  <si>
+    <t>六年级</t>
+  </si>
+  <si>
+    <t>绿码人数（人数：45）
+ 黄码人数（人数：0）
+ 红码人数（人数：0）
+ 橙码人数（人数：0）
+ 未申领健康码（人数：0）</t>
+  </si>
+  <si>
     <t>2020-09-07 08:35</t>
   </si>
   <si>
@@ -98,9 +163,6 @@
   </si>
   <si>
     <t>三班</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>绿码人数（人数：43）
@@ -110,9 +172,6 @@
  未申领健康码（人数：0）</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>2020-09-07 08:09</t>
   </si>
   <si>
@@ -138,9 +197,6 @@
   </si>
   <si>
     <t>五年级</t>
-  </si>
-  <si>
-    <t>一班</t>
   </si>
   <si>
     <t>绿码人数（人数：44）
@@ -169,22 +225,121 @@
     <t>2020-09-06 16:34</t>
   </si>
   <si>
-    <t>汪明霞</t>
-  </si>
-  <si>
-    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;六年级2015级&gt;六年级1班&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;六年级</t>
-  </si>
-  <si>
-    <t>六年级</t>
-  </si>
-  <si>
-    <t>绿码人数（人数：45）
+    <t>2020-09-06 10:01</t>
+  </si>
+  <si>
+    <t>华孝琴</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;四年级2017级&gt;四年级5班&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;四年级</t>
+  </si>
+  <si>
+    <t>五班</t>
+  </si>
+  <si>
+    <t>2020-09-06 09:48</t>
+  </si>
+  <si>
+    <t>章小莉</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;四年级2017级&gt;四年级7班(向日葵中队)&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;四年级</t>
+  </si>
+  <si>
+    <t>七班</t>
+  </si>
+  <si>
+    <t>2020-09-06 09:28</t>
+  </si>
+  <si>
+    <t>戚月红</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组长，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;三年级2018级&gt;三年级10班&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;三年级</t>
+  </si>
+  <si>
+    <t>十班</t>
+  </si>
+  <si>
+    <t>2020-09-06 09:11</t>
+  </si>
+  <si>
+    <t>2020-09-06 08:20</t>
+  </si>
+  <si>
+    <t>刘祖钱</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;六年级2015级&gt;六年级6班&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;六年级</t>
+  </si>
+  <si>
+    <t>2020-09-06 07:08</t>
+  </si>
+  <si>
+    <t>2020-09-06 06:34</t>
+  </si>
+  <si>
+    <t>翁贤明</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;中心亭校区，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;中心亭校区&gt;小学&gt;六年级2015级&gt;六年级1班(中心亭校区五年级)&gt;老师，衢州市柯城区新世纪学校&gt;家校通讯录&gt;中心亭校区&gt;小学&gt;四年级2017级&gt;四年级1班&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任</t>
+  </si>
+  <si>
+    <t>中心亭</t>
+  </si>
+  <si>
+    <t>绿码人数（人数：8）
  黄码人数（人数：0）
  红码人数（人数：0）
  橙码人数（人数：0）
  未申领健康码（人数：0）</t>
   </si>
   <si>
+    <t>2020-09-06 06:30</t>
+  </si>
+  <si>
+    <t>许晓佳</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组长，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;五年级2016级&gt;五年级3班&gt;老师，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;五年级2016级&gt;五年级5班&gt;家长，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;五年级</t>
+  </si>
+  <si>
+    <t>2020-09-05 10:06</t>
+  </si>
+  <si>
+    <t>吴玉萍</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;语文，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;二年级2019级&gt;二年级2班&gt;老师，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;二年级，衢州市柯城区新世纪学校&gt;教师岗位&gt;班主任</t>
+  </si>
+  <si>
+    <t>2020-09-05 08:58</t>
+  </si>
+  <si>
+    <t>2020-09-05 07:58</t>
+  </si>
+  <si>
+    <t>2020-09-05 07:46</t>
+  </si>
+  <si>
+    <t>2020-09-05 07:13</t>
+  </si>
+  <si>
+    <t>刘晓燕</t>
+  </si>
+  <si>
+    <t>衢州市柯城区新世纪学校&gt;教师岗位&gt;教研组&gt;英语，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;六年级2015级&gt;六年级2班&gt;老师，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;六年级2015级&gt;六年级1班&gt;老师，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;六年级2015级&gt;六年级7班&gt;老师，衢州市柯城区新世纪学校&gt;家校通讯录&gt;衢州市柯城区新世纪学校&gt;小学&gt;六年级2015级&gt;六年级6班&gt;家长，衢州市柯城区新世纪学校&gt;教师岗位&gt;年级组&gt;六年级，衢州市柯城区新世纪学校&gt;中层岗位&gt;安保处</t>
+  </si>
+  <si>
+    <t>学生1（文字描述(例:X月X日学生姓名与去过哪里的谁接触?)：发广告刚刚好）</t>
+  </si>
+  <si>
+    <t>学生1（姓名：是是是，文字描述(例:X月X日学生家长与去过哪里的谁接触?)：呃呃呃）</t>
+  </si>
+  <si>
+    <t>学生1（姓名：呃呃呃，是否发热(填是&amp;否)：是，是否咳嗽乏力腹泻呕吐等(填是&amp;否)：三生三世，是否有重点疫区接触史(填是&amp;否)：是，请假原因：滚滚滚）</t>
+  </si>
+  <si>
     <t>主表序号</t>
   </si>
   <si>
@@ -197,28 +352,34 @@
     <t>绿码人数</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>黄码人数</t>
+  </si>
+  <si>
+    <t>红码人数</t>
+  </si>
+  <si>
+    <t>橙码人数</t>
+  </si>
+  <si>
+    <t>未申领健康码</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
-    <t>黄码人数</t>
-  </si>
-  <si>
-    <t>红码人数</t>
-  </si>
-  <si>
-    <t>橙码人数</t>
-  </si>
-  <si>
-    <t>未申领健康码</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>45</t>
+    <t>8</t>
   </si>
   <si>
     <t>姓名</t>
@@ -233,9 +394,33 @@
     <t>文字描述(例:X月X日学生姓名与去过哪里的谁接触?)</t>
   </si>
   <si>
+    <t>学生1</t>
+  </si>
+  <si>
+    <t>发广告刚刚好</t>
+  </si>
+  <si>
+    <t>学生2</t>
+  </si>
+  <si>
+    <t>学生3</t>
+  </si>
+  <si>
+    <t>学生4</t>
+  </si>
+  <si>
+    <t>学生5</t>
+  </si>
+  <si>
     <t>文字描述(例:X月X日学生家长与去过哪里的谁接触?)</t>
   </si>
   <si>
+    <t>是是是</t>
+  </si>
+  <si>
+    <t>呃呃呃</t>
+  </si>
+  <si>
     <t>是否发热(填是&amp;否)</t>
   </si>
   <si>
@@ -246,6 +431,33 @@
   </si>
   <si>
     <t>请假原因</t>
+  </si>
+  <si>
+    <t>李悦鸣</t>
+  </si>
+  <si>
+    <t>喉咙不舒服</t>
+  </si>
+  <si>
+    <t>学生6</t>
+  </si>
+  <si>
+    <t>学生7</t>
+  </si>
+  <si>
+    <t>学生8</t>
+  </si>
+  <si>
+    <t>学生9</t>
+  </si>
+  <si>
+    <t>学生10</t>
+  </si>
+  <si>
+    <t>三生三世</t>
+  </si>
+  <si>
+    <t>滚滚滚</t>
   </si>
 </sst>
 </file>
@@ -655,16 +867,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -750,7 +959,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -801,33 +1010,33 @@
         <v>20</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -868,25 +1077,25 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -927,7 +1136,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -942,10 +1151,10 @@
         <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -957,7 +1166,7 @@
         <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
         <v>28</v>
@@ -986,81 +1195,1084 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" t="s">
-        <v>20</v>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" t="s">
+        <v>95</v>
+      </c>
+      <c r="P24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>96</v>
+      </c>
+      <c r="R24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1070,7 +2282,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1078,32 +2290,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1111,10 +2323,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -1122,10 +2334,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -1133,10 +2345,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -1144,21 +2356,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -1166,10 +2378,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -1177,10 +2389,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -1188,10 +2400,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1199,21 +2411,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1221,10 +2433,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -1232,10 +2444,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -1243,10 +2455,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -1254,21 +2466,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -1276,10 +2488,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1287,10 +2499,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -1298,10 +2510,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -1309,21 +2521,21 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -1331,10 +2543,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1342,10 +2554,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -1353,12 +2565,947 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B107" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1379,19 +3526,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +3550,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1411,16 +3558,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +3649,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1440,16 +3657,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +3748,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1469,25 +3756,485 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
